--- a/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL1.30days.xlsx
+++ b/MCP1_pg_mL/OUTPUT/20200714.AEDB.CEA.Cox.2G.MODEL1.30days.xlsx
@@ -405,7 +405,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -468,13 +468,13 @@
         <v>1.09054412862767</v>
       </c>
       <c r="H2" t="n">
-        <v>4.25914629038878</v>
+        <v>4.25914629038879</v>
       </c>
       <c r="I2" t="n">
         <v>2.20939441480449</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0271472191770685</v>
+        <v>0.0271472191770688</v>
       </c>
       <c r="K2" t="n">
         <v>1187</v>
@@ -497,7 +497,7 @@
         <v>-0.163303598511588</v>
       </c>
       <c r="E3" t="n">
-        <v>0.49869877678953</v>
+        <v>0.498698776789531</v>
       </c>
       <c r="F3" t="n">
         <v>0.849333292944651</v>
@@ -532,25 +532,25 @@
         <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>0.629035819730346</v>
+        <v>0.629035819730344</v>
       </c>
       <c r="E4" t="n">
-        <v>0.371465644136003</v>
+        <v>0.371465644136002</v>
       </c>
       <c r="F4" t="n">
         <v>1.87580109666361</v>
       </c>
       <c r="G4" t="n">
-        <v>0.90570933856236</v>
+        <v>0.905709338562359</v>
       </c>
       <c r="H4" t="n">
-        <v>3.88494366175971</v>
+        <v>3.8849436617597</v>
       </c>
       <c r="I4" t="n">
         <v>1.69338895712261</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0903814554477914</v>
+        <v>0.0903814554477925</v>
       </c>
       <c r="K4" t="n">
         <v>1187</v>
@@ -570,10 +570,10 @@
         <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0285554978437683</v>
+        <v>0.0285554978437684</v>
       </c>
       <c r="E5" t="n">
-        <v>0.546348772398233</v>
+        <v>0.546348772398234</v>
       </c>
       <c r="F5" t="n">
         <v>1.02896711470611</v>
@@ -582,10 +582,10 @@
         <v>0.352646868224888</v>
       </c>
       <c r="H5" t="n">
-        <v>3.00236133806079</v>
+        <v>3.0023613380608</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0522660602281984</v>
+        <v>0.0522660602281985</v>
       </c>
       <c r="J5" t="n">
         <v>0.958316696351984</v>
@@ -608,25 +608,25 @@
         <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>1.16219752806508</v>
+        <v>1.16219752806509</v>
       </c>
       <c r="E6" t="n">
         <v>0.710711566859863</v>
       </c>
       <c r="F6" t="n">
-        <v>3.1969509519619</v>
+        <v>3.19695095196191</v>
       </c>
       <c r="G6" t="n">
-        <v>0.793900497990462</v>
+        <v>0.793900497990463</v>
       </c>
       <c r="H6" t="n">
-        <v>12.8737737476175</v>
+        <v>12.8737737476176</v>
       </c>
       <c r="I6" t="n">
-        <v>1.63525905903012</v>
+        <v>1.63525905903013</v>
       </c>
       <c r="J6" t="n">
-        <v>0.10199475217875</v>
+        <v>0.101994752178749</v>
       </c>
       <c r="K6" t="n">
         <v>1187</v>
@@ -646,10 +646,10 @@
         <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0613086791056416</v>
+        <v>0.0613086791056415</v>
       </c>
       <c r="E7" t="n">
-        <v>0.966000309843966</v>
+        <v>0.966000309843967</v>
       </c>
       <c r="F7" t="n">
         <v>1.06322705951661</v>
@@ -658,10 +658,10 @@
         <v>0.160084748126157</v>
       </c>
       <c r="H7" t="n">
-        <v>7.06158327586255</v>
+        <v>7.06158327586256</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0634665211603757</v>
+        <v>0.0634665211603756</v>
       </c>
       <c r="J7" t="n">
         <v>0.94939501772217</v>
@@ -684,25 +684,25 @@
         <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0923161353129079</v>
+        <v>-0.0923161353129069</v>
       </c>
       <c r="E8" t="n">
         <v>1.10377145116528</v>
       </c>
       <c r="F8" t="n">
-        <v>0.911816846472026</v>
+        <v>0.911816846472027</v>
       </c>
       <c r="G8" t="n">
         <v>0.104799300724158</v>
       </c>
       <c r="H8" t="n">
-        <v>7.9333540945902</v>
+        <v>7.93335409459021</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0836370022212906</v>
+        <v>-0.0836370022212897</v>
       </c>
       <c r="J8" t="n">
-        <v>0.933345046471481</v>
+        <v>0.933345046471482</v>
       </c>
       <c r="K8" t="n">
         <v>1187</v>
@@ -722,13 +722,13 @@
         <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>21.6125725420188</v>
+        <v>21.6125725783498</v>
       </c>
       <c r="E9" t="n">
-        <v>37102.3411038716</v>
+        <v>37102.3457779611</v>
       </c>
       <c r="F9" t="n">
-        <v>2433441973.35143</v>
+        <v>2433442061.76088</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         <v>#NUM!</v>
       </c>
       <c r="I9" t="n">
-        <v>0.000582512367117544</v>
+        <v>0.000582512294712853</v>
       </c>
       <c r="J9" t="n">
-        <v>0.999535222402085</v>
+        <v>0.999535222459855</v>
       </c>
       <c r="K9" t="n">
         <v>549</v>
